--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) бронза от 06.08.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) бронза от 06.08.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XIII-В-28-2-200-3 (Фляга 0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8290F4B-F516-40F1-9DE1-40DDF326DA4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A429E70-1653-4359-8E67-CEE2D5FC3F9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2196,7 +2196,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="650">
+  <cellXfs count="648">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3628,19 +3628,7 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3687,26 +3675,53 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3715,6 +3730,54 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3724,77 +3787,38 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3895,40 +3919,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3948,84 +4020,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4056,34 +4050,34 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6743,25 +6737,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="500" t="s">
+      <c r="A1" s="496" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="504"/>
-      <c r="C1" s="504"/>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
       <c r="G1" s="361" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="501" t="s">
+      <c r="A2" s="497" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="502"/>
-      <c r="C2" s="502"/>
-      <c r="D2" s="502"/>
-      <c r="E2" s="503"/>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="499"/>
       <c r="G2" s="360" t="s">
         <v>78</v>
       </c>
@@ -6772,45 +6766,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="505" t="s">
+      <c r="A4" s="501" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="506"/>
-      <c r="C4" s="506"/>
-      <c r="D4" s="506"/>
-      <c r="E4" s="506"/>
+      <c r="B4" s="502"/>
+      <c r="C4" s="502"/>
+      <c r="D4" s="502"/>
+      <c r="E4" s="502"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="507" t="s">
+      <c r="A5" s="503" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="508"/>
-      <c r="C5" s="508"/>
-      <c r="D5" s="508"/>
-      <c r="E5" s="509"/>
+      <c r="B5" s="504"/>
+      <c r="C5" s="504"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="505"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="500" t="s">
+      <c r="A7" s="496" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="504"/>
-      <c r="C7" s="504"/>
-      <c r="D7" s="504"/>
-      <c r="E7" s="504"/>
+      <c r="B7" s="500"/>
+      <c r="C7" s="500"/>
+      <c r="D7" s="500"/>
+      <c r="E7" s="500"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="510"/>
-      <c r="B8" s="511"/>
-      <c r="C8" s="511"/>
-      <c r="D8" s="511"/>
-      <c r="E8" s="512"/>
+      <c r="A8" s="506"/>
+      <c r="B8" s="507"/>
+      <c r="C8" s="507"/>
+      <c r="D8" s="507"/>
+      <c r="E8" s="508"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="500" t="s">
+      <c r="A10" s="496" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="500"/>
+      <c r="B10" s="496"/>
       <c r="C10" s="362"/>
       <c r="D10" s="368" t="s">
         <v>91</v>
@@ -6821,33 +6815,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="498"/>
-      <c r="B11" s="499"/>
+      <c r="A11" s="494"/>
+      <c r="B11" s="495"/>
       <c r="D11" s="367">
         <v>44049</v>
       </c>
-      <c r="F11" s="495" t="s">
+      <c r="F11" s="509" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="495"/>
-      <c r="H11" s="495"/>
-      <c r="I11" s="495"/>
-      <c r="J11" s="496" t="s">
+      <c r="G11" s="509"/>
+      <c r="H11" s="509"/>
+      <c r="I11" s="509"/>
+      <c r="J11" s="510" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="496"/>
+      <c r="K11" s="510"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="495" t="s">
+      <c r="F12" s="509" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="495"/>
-      <c r="H12" s="495"/>
-      <c r="I12" s="495"/>
-      <c r="J12" s="496" t="s">
+      <c r="G12" s="509"/>
+      <c r="H12" s="509"/>
+      <c r="I12" s="509"/>
+      <c r="J12" s="510" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="496"/>
+      <c r="K12" s="510"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="372" t="s">
@@ -6865,16 +6859,16 @@
       <c r="E13" s="446" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="495" t="s">
+      <c r="F13" s="509" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="495"/>
-      <c r="H13" s="495"/>
-      <c r="I13" s="495"/>
-      <c r="J13" s="496" t="s">
+      <c r="G13" s="509"/>
+      <c r="H13" s="509"/>
+      <c r="I13" s="509"/>
+      <c r="J13" s="510" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="496"/>
+      <c r="K13" s="510"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="363" t="s">
@@ -7119,11 +7113,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="497" t="s">
+      <c r="A28" s="493" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="497"/>
-      <c r="C28" s="497"/>
+      <c r="B28" s="493"/>
+      <c r="C28" s="493"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="361" t="s">
@@ -7132,6 +7126,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7141,12 +7141,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7200,47 +7194,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B20</f>
         <v>70</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7251,9 +7245,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7272,22 +7266,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
-      <c r="L5" s="509"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7298,22 +7292,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
-      <c r="L6" s="509"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7324,27 +7318,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="510">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="498">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7729,33 +7723,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="630" t="s">
+      <c r="L21" s="628" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="630"/>
-      <c r="N21" s="630"/>
+      <c r="M21" s="628"/>
+      <c r="N21" s="628"/>
       <c r="O21" s="447"/>
       <c r="P21" s="447"/>
       <c r="Q21" s="463"/>
       <c r="R21" s="463"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="552" t="s">
+      <c r="O22" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="552"/>
-      <c r="Q22" s="553" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="R22" s="554"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7772,6 +7761,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7837,47 +7831,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7888,9 +7882,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7909,22 +7903,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
-      <c r="L5" s="509"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7935,22 +7929,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
-      <c r="L6" s="509"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7961,27 +7955,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="510">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="498">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8310,12 +8304,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="641" t="s">
+      <c r="B18" s="638" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="642"/>
-      <c r="D18" s="642"/>
-      <c r="E18" s="643"/>
+      <c r="C18" s="639"/>
+      <c r="D18" s="639"/>
+      <c r="E18" s="640"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8358,37 +8352,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="630" t="s">
+      <c r="L21" s="628" t="s">
         <v>133</v>
       </c>
-      <c r="M21" s="630"/>
-      <c r="N21" s="630"/>
+      <c r="M21" s="628"/>
+      <c r="N21" s="628"/>
       <c r="O21" s="447"/>
       <c r="P21" s="447"/>
       <c r="Q21" s="463"/>
       <c r="R21" s="463"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="552" t="s">
+      <c r="O22" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="552"/>
-      <c r="Q22" s="553" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="R22" s="554"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8402,6 +8387,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8476,47 +8470,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8527,9 +8521,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8548,22 +8542,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
-      <c r="L5" s="509"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8574,22 +8568,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
-      <c r="L6" s="509"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8600,27 +8594,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="510">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="498">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8931,33 +8925,28 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="630" t="s">
+      <c r="L19" s="628" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="630"/>
-      <c r="N19" s="630"/>
+      <c r="M19" s="628"/>
+      <c r="N19" s="628"/>
       <c r="O19" s="447"/>
       <c r="P19" s="447"/>
       <c r="Q19" s="463"/>
       <c r="R19" s="463"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="552" t="s">
+      <c r="O20" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="552"/>
-      <c r="Q20" s="553" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="R20" s="554"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8974,6 +8963,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9030,47 +9024,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="646">
+      <c r="J2" s="615"/>
+      <c r="K2" s="643">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="647"/>
+      <c r="L2" s="644"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="648"/>
-      <c r="L3" s="649"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="645"/>
+      <c r="L3" s="646"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9081,9 +9075,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9102,22 +9096,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
-      <c r="L5" s="509"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9128,22 +9122,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
-      <c r="L6" s="509"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9154,27 +9148,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="510">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="498">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9444,33 +9438,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="630" t="s">
+      <c r="L18" s="628" t="s">
         <v>133</v>
       </c>
-      <c r="M18" s="630"/>
-      <c r="N18" s="630"/>
+      <c r="M18" s="628"/>
+      <c r="N18" s="628"/>
       <c r="O18" s="447"/>
       <c r="P18" s="447"/>
       <c r="Q18" s="463"/>
       <c r="R18" s="463"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="552" t="s">
+      <c r="O19" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="552"/>
-      <c r="Q19" s="553" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="R19" s="554"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9487,6 +9476,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9515,8 +9509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9570,17 +9564,17 @@
       <c r="L2" s="377"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="518" t="s">
+      <c r="A3" s="513" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="518"/>
-      <c r="C3" s="518"/>
-      <c r="D3" s="518"/>
-      <c r="E3" s="518"/>
-      <c r="F3" s="518"/>
-      <c r="G3" s="518"/>
-      <c r="H3" s="518"/>
-      <c r="I3" s="518"/>
+      <c r="B3" s="513"/>
+      <c r="C3" s="513"/>
+      <c r="D3" s="513"/>
+      <c r="E3" s="513"/>
+      <c r="F3" s="513"/>
+      <c r="G3" s="513"/>
+      <c r="H3" s="513"/>
+      <c r="I3" s="513"/>
       <c r="K3" s="378"/>
       <c r="L3" s="378"/>
       <c r="M3" s="379"/>
@@ -10096,7 +10090,7 @@
         <v>3445761</v>
       </c>
       <c r="G21" s="410">
-        <f t="shared" ref="G21:G32" si="2">F21/A$21</f>
+        <f t="shared" ref="G21:G33" si="2">F21/A$21</f>
         <v>8.9733359375000002E-2</v>
       </c>
       <c r="H21" s="411">
@@ -10459,7 +10453,7 @@
         <f t="shared" ref="I31" si="21">I30-G31</f>
         <v>-0.22562791666666676</v>
       </c>
-      <c r="J31" s="494">
+      <c r="J31" s="492">
         <v>196</v>
       </c>
       <c r="K31" s="413"/>
@@ -10494,7 +10488,7 @@
         <f t="shared" ref="I32" si="23">I31-G32</f>
         <v>-0.30102184895833339</v>
       </c>
-      <c r="J32" s="494">
+      <c r="J32" s="492">
         <v>197</v>
       </c>
       <c r="K32" s="413"/>
@@ -10502,15 +10496,36 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="423"/>
-      <c r="B33" s="491"/>
-      <c r="C33" s="424"/>
-      <c r="D33" s="424"/>
-      <c r="E33" s="478"/>
-      <c r="F33" s="479"/>
-      <c r="G33" s="425"/>
-      <c r="H33" s="492"/>
-      <c r="I33" s="493"/>
-      <c r="J33" s="494"/>
+      <c r="B33" s="491">
+        <v>44355</v>
+      </c>
+      <c r="C33" s="424">
+        <v>44377</v>
+      </c>
+      <c r="D33" s="424">
+        <v>44378</v>
+      </c>
+      <c r="E33" s="478">
+        <v>5336280</v>
+      </c>
+      <c r="F33" s="479">
+        <v>5505714</v>
+      </c>
+      <c r="G33" s="425">
+        <f t="shared" si="2"/>
+        <v>0.14337796875</v>
+      </c>
+      <c r="H33" s="485">
+        <f t="shared" ref="H33" si="24">H32-F33</f>
+        <v>-17064953</v>
+      </c>
+      <c r="I33" s="486">
+        <f t="shared" ref="I33" si="25">I32-G33</f>
+        <v>-0.44439981770833337</v>
+      </c>
+      <c r="J33" s="492">
+        <v>197</v>
+      </c>
       <c r="K33" s="413"/>
       <c r="L33" s="379"/>
     </row>
@@ -10537,23 +10552,23 @@
       <c r="D35" s="429"/>
       <c r="E35" s="464">
         <f>SUM(E21:E34)</f>
-        <v>48337963</v>
+        <v>53674243</v>
       </c>
       <c r="F35" s="465">
         <f>SUM(F21:F34)</f>
-        <v>49959239</v>
+        <v>55464953</v>
       </c>
       <c r="G35" s="430">
         <f>SUM(G21:G34)</f>
-        <v>1.3010218489583334</v>
+        <v>1.4443998177083335</v>
       </c>
       <c r="H35" s="431">
         <f>A21-F35</f>
-        <v>-11559239</v>
+        <v>-17064953</v>
       </c>
       <c r="I35" s="432">
         <f>1-G35</f>
-        <v>-0.30102184895833339</v>
+        <v>-0.44439981770833348</v>
       </c>
       <c r="J35" s="469"/>
       <c r="K35" s="433"/>
@@ -10572,12 +10587,12 @@
       <c r="J38" s="379"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="519" t="s">
+      <c r="A39" s="514" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="519"/>
-      <c r="C39" s="519"/>
-      <c r="D39" s="519"/>
+      <c r="B39" s="514"/>
+      <c r="C39" s="514"/>
+      <c r="D39" s="514"/>
       <c r="E39" s="379"/>
       <c r="F39" s="379"/>
       <c r="G39" s="379"/>
@@ -10586,10 +10601,10 @@
       <c r="J39" s="379"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="520" t="s">
+      <c r="A40" s="515" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="520"/>
+      <c r="B40" s="515"/>
       <c r="C40" s="434" t="s">
         <v>127</v>
       </c>
@@ -10604,18 +10619,18 @@
       <c r="J40" s="379"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="521">
+      <c r="A41" s="516">
         <f>A21-F35</f>
-        <v>-11559239</v>
-      </c>
-      <c r="B41" s="522"/>
+        <v>-17064953</v>
+      </c>
+      <c r="B41" s="517"/>
       <c r="C41" s="435">
         <f>1-G35</f>
-        <v>-0.30102184895833339</v>
+        <v>-0.44439981770833348</v>
       </c>
       <c r="D41" s="436">
         <f>(C41/0.9)*100</f>
-        <v>-33.446872106481493</v>
+        <v>-49.377757523148162</v>
       </c>
       <c r="E41" s="437" t="s">
         <v>129</v>
@@ -10670,8 +10685,8 @@
       <c r="F45" s="439"/>
       <c r="G45" s="439"/>
       <c r="H45" s="439"/>
-      <c r="I45" s="513"/>
-      <c r="J45" s="514"/>
+      <c r="I45" s="518"/>
+      <c r="J45" s="519"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="440"/>
@@ -10765,9 +10780,9 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="379"/>
-      <c r="B55" s="516"/>
-      <c r="C55" s="516"/>
-      <c r="D55" s="517"/>
+      <c r="B55" s="511"/>
+      <c r="C55" s="511"/>
+      <c r="D55" s="512"/>
       <c r="E55" s="437"/>
       <c r="F55" s="379"/>
       <c r="G55" s="379"/>
@@ -10784,8 +10799,8 @@
       <c r="F56" s="439"/>
       <c r="G56" s="439"/>
       <c r="H56" s="439"/>
-      <c r="I56" s="513"/>
-      <c r="J56" s="514"/>
+      <c r="I56" s="518"/>
+      <c r="J56" s="519"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="440"/>
@@ -10796,8 +10811,8 @@
       <c r="F57" s="400"/>
       <c r="G57" s="400"/>
       <c r="H57" s="441"/>
-      <c r="I57" s="515"/>
-      <c r="J57" s="515"/>
+      <c r="I57" s="520"/>
+      <c r="J57" s="520"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="440"/>
@@ -10808,8 +10823,8 @@
       <c r="F58" s="398"/>
       <c r="G58" s="398"/>
       <c r="H58" s="398"/>
-      <c r="I58" s="515"/>
-      <c r="J58" s="515"/>
+      <c r="I58" s="520"/>
+      <c r="J58" s="520"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="379"/>
@@ -10822,26 +10837,26 @@
       <c r="H59" s="379"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="513"/>
-      <c r="C64" s="514"/>
+      <c r="B64" s="518"/>
+      <c r="C64" s="519"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="513"/>
-      <c r="C71" s="514"/>
+      <c r="B71" s="518"/>
+      <c r="C71" s="519"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B71:C71"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10924,47 +10939,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="547" t="s">
+      <c r="A11" s="522" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="547"/>
-      <c r="C11" s="547"/>
-      <c r="D11" s="547"/>
-      <c r="E11" s="547"/>
-      <c r="F11" s="547"/>
-      <c r="G11" s="547"/>
-      <c r="H11" s="547"/>
-      <c r="I11" s="547"/>
-      <c r="J11" s="547"/>
+      <c r="B11" s="522"/>
+      <c r="C11" s="522"/>
+      <c r="D11" s="522"/>
+      <c r="E11" s="522"/>
+      <c r="F11" s="522"/>
+      <c r="G11" s="522"/>
+      <c r="H11" s="522"/>
+      <c r="I11" s="522"/>
+      <c r="J11" s="522"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="546" t="s">
+      <c r="A12" s="521" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="546"/>
-      <c r="C12" s="546"/>
-      <c r="D12" s="546"/>
-      <c r="E12" s="546"/>
-      <c r="F12" s="546"/>
-      <c r="G12" s="546"/>
-      <c r="H12" s="546"/>
-      <c r="I12" s="546"/>
-      <c r="J12" s="546"/>
+      <c r="B12" s="521"/>
+      <c r="C12" s="521"/>
+      <c r="D12" s="521"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="521"/>
+      <c r="G12" s="521"/>
+      <c r="H12" s="521"/>
+      <c r="I12" s="521"/>
+      <c r="J12" s="521"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="548" t="str">
+      <c r="A13" s="523" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="B13" s="547"/>
-      <c r="C13" s="547"/>
-      <c r="D13" s="547"/>
-      <c r="E13" s="547"/>
-      <c r="F13" s="547"/>
-      <c r="G13" s="547"/>
-      <c r="H13" s="547"/>
-      <c r="I13" s="547"/>
-      <c r="J13" s="547"/>
+      <c r="B13" s="522"/>
+      <c r="C13" s="522"/>
+      <c r="D13" s="522"/>
+      <c r="E13" s="522"/>
+      <c r="F13" s="522"/>
+      <c r="G13" s="522"/>
+      <c r="H13" s="522"/>
+      <c r="I13" s="522"/>
+      <c r="J13" s="522"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -11089,493 +11104,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="544" t="s">
+      <c r="A22" s="527" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="544" t="s">
+      <c r="B22" s="527" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="544"/>
-      <c r="D22" s="544"/>
-      <c r="E22" s="544" t="s">
+      <c r="C22" s="527"/>
+      <c r="D22" s="527"/>
+      <c r="E22" s="527" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="544"/>
+      <c r="F22" s="527"/>
       <c r="G22" s="545" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="544" t="s">
+      <c r="H22" s="527" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="544"/>
-      <c r="J22" s="544"/>
+      <c r="I22" s="527"/>
+      <c r="J22" s="527"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="544"/>
-      <c r="B23" s="544"/>
-      <c r="C23" s="544"/>
-      <c r="D23" s="544"/>
-      <c r="E23" s="544"/>
-      <c r="F23" s="544"/>
+      <c r="A23" s="527"/>
+      <c r="B23" s="527"/>
+      <c r="C23" s="527"/>
+      <c r="D23" s="527"/>
+      <c r="E23" s="527"/>
+      <c r="F23" s="527"/>
       <c r="G23" s="545"/>
-      <c r="H23" s="544"/>
-      <c r="I23" s="544"/>
-      <c r="J23" s="544"/>
+      <c r="H23" s="527"/>
+      <c r="I23" s="527"/>
+      <c r="J23" s="527"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="523">
+      <c r="A24" s="528">
         <v>1</v>
       </c>
-      <c r="B24" s="549" t="s">
+      <c r="B24" s="542" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="550"/>
-      <c r="D24" s="551"/>
-      <c r="E24" s="528" t="str">
+      <c r="C24" s="543"/>
+      <c r="D24" s="544"/>
+      <c r="E24" s="530" t="str">
         <f>Данные!C14</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F24" s="529"/>
-      <c r="G24" s="532">
+      <c r="F24" s="531"/>
+      <c r="G24" s="534">
         <f>Данные!B14</f>
         <v>32</v>
       </c>
-      <c r="H24" s="534"/>
-      <c r="I24" s="535"/>
-      <c r="J24" s="536"/>
+      <c r="H24" s="536"/>
+      <c r="I24" s="537"/>
+      <c r="J24" s="538"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="524"/>
-      <c r="B25" s="540" t="str">
+      <c r="A25" s="529"/>
+      <c r="B25" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C25" s="541"/>
-      <c r="D25" s="542"/>
-      <c r="E25" s="543"/>
-      <c r="F25" s="531"/>
-      <c r="G25" s="533"/>
-      <c r="H25" s="537"/>
-      <c r="I25" s="538"/>
-      <c r="J25" s="539"/>
+      <c r="C25" s="525"/>
+      <c r="D25" s="526"/>
+      <c r="E25" s="532"/>
+      <c r="F25" s="533"/>
+      <c r="G25" s="535"/>
+      <c r="H25" s="539"/>
+      <c r="I25" s="540"/>
+      <c r="J25" s="541"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="523">
+      <c r="A26" s="528">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="525" t="s">
+      <c r="B26" s="546" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="526"/>
-      <c r="D26" s="527"/>
-      <c r="E26" s="528" t="str">
+      <c r="C26" s="547"/>
+      <c r="D26" s="548"/>
+      <c r="E26" s="530" t="str">
         <f>Данные!C15</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F26" s="529"/>
-      <c r="G26" s="532">
+      <c r="F26" s="531"/>
+      <c r="G26" s="534">
         <f>Данные!B15</f>
         <v>32</v>
       </c>
-      <c r="H26" s="534"/>
-      <c r="I26" s="535"/>
-      <c r="J26" s="536"/>
+      <c r="H26" s="536"/>
+      <c r="I26" s="537"/>
+      <c r="J26" s="538"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="524"/>
-      <c r="B27" s="540" t="str">
+      <c r="A27" s="529"/>
+      <c r="B27" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C27" s="541"/>
-      <c r="D27" s="542"/>
-      <c r="E27" s="543"/>
-      <c r="F27" s="531"/>
-      <c r="G27" s="533"/>
-      <c r="H27" s="537"/>
-      <c r="I27" s="538"/>
-      <c r="J27" s="539"/>
+      <c r="C27" s="525"/>
+      <c r="D27" s="526"/>
+      <c r="E27" s="532"/>
+      <c r="F27" s="533"/>
+      <c r="G27" s="535"/>
+      <c r="H27" s="539"/>
+      <c r="I27" s="540"/>
+      <c r="J27" s="541"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="523">
+      <c r="A28" s="528">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="525" t="s">
+      <c r="B28" s="546" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="526"/>
-      <c r="D28" s="527"/>
-      <c r="E28" s="528" t="str">
+      <c r="C28" s="547"/>
+      <c r="D28" s="548"/>
+      <c r="E28" s="530" t="str">
         <f>Данные!C16</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F28" s="529"/>
-      <c r="G28" s="532">
+      <c r="F28" s="531"/>
+      <c r="G28" s="534">
         <f>Данные!B16</f>
         <v>64</v>
       </c>
-      <c r="H28" s="534"/>
-      <c r="I28" s="535"/>
-      <c r="J28" s="536"/>
+      <c r="H28" s="536"/>
+      <c r="I28" s="537"/>
+      <c r="J28" s="538"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="524"/>
-      <c r="B29" s="540" t="str">
+      <c r="A29" s="529"/>
+      <c r="B29" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C29" s="541"/>
-      <c r="D29" s="542"/>
-      <c r="E29" s="543"/>
-      <c r="F29" s="531"/>
-      <c r="G29" s="533"/>
-      <c r="H29" s="537"/>
-      <c r="I29" s="538"/>
-      <c r="J29" s="539"/>
+      <c r="C29" s="525"/>
+      <c r="D29" s="526"/>
+      <c r="E29" s="532"/>
+      <c r="F29" s="533"/>
+      <c r="G29" s="535"/>
+      <c r="H29" s="539"/>
+      <c r="I29" s="540"/>
+      <c r="J29" s="541"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="523">
+      <c r="A30" s="528">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="525" t="s">
+      <c r="B30" s="546" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="526"/>
-      <c r="D30" s="527"/>
-      <c r="E30" s="528" t="str">
+      <c r="C30" s="547"/>
+      <c r="D30" s="548"/>
+      <c r="E30" s="530" t="str">
         <f>Данные!C17</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F30" s="529"/>
-      <c r="G30" s="532">
+      <c r="F30" s="531"/>
+      <c r="G30" s="534">
         <f>Данные!B17</f>
         <v>64</v>
       </c>
-      <c r="H30" s="534"/>
-      <c r="I30" s="535"/>
-      <c r="J30" s="536"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="537"/>
+      <c r="J30" s="538"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="524"/>
-      <c r="B31" s="540" t="str">
+      <c r="A31" s="529"/>
+      <c r="B31" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C31" s="541"/>
-      <c r="D31" s="542"/>
-      <c r="E31" s="530"/>
-      <c r="F31" s="531"/>
-      <c r="G31" s="533"/>
-      <c r="H31" s="537"/>
-      <c r="I31" s="538"/>
-      <c r="J31" s="539"/>
+      <c r="C31" s="525"/>
+      <c r="D31" s="526"/>
+      <c r="E31" s="549"/>
+      <c r="F31" s="533"/>
+      <c r="G31" s="535"/>
+      <c r="H31" s="539"/>
+      <c r="I31" s="540"/>
+      <c r="J31" s="541"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="523">
+      <c r="A32" s="528">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="525" t="s">
+      <c r="B32" s="546" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="526"/>
-      <c r="D32" s="527"/>
-      <c r="E32" s="528" t="str">
+      <c r="C32" s="547"/>
+      <c r="D32" s="548"/>
+      <c r="E32" s="530" t="str">
         <f>Данные!C18</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F32" s="529"/>
-      <c r="G32" s="532">
+      <c r="F32" s="531"/>
+      <c r="G32" s="534">
         <f>Данные!B18</f>
         <v>152</v>
       </c>
-      <c r="H32" s="534"/>
-      <c r="I32" s="535"/>
-      <c r="J32" s="536"/>
+      <c r="H32" s="536"/>
+      <c r="I32" s="537"/>
+      <c r="J32" s="538"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="524"/>
-      <c r="B33" s="540" t="str">
+      <c r="A33" s="529"/>
+      <c r="B33" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C33" s="541"/>
-      <c r="D33" s="542"/>
-      <c r="E33" s="530"/>
-      <c r="F33" s="531"/>
-      <c r="G33" s="533"/>
-      <c r="H33" s="537"/>
-      <c r="I33" s="538"/>
-      <c r="J33" s="539"/>
+      <c r="C33" s="525"/>
+      <c r="D33" s="526"/>
+      <c r="E33" s="549"/>
+      <c r="F33" s="533"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="539"/>
+      <c r="I33" s="540"/>
+      <c r="J33" s="541"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="523">
+      <c r="A34" s="528">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="525" t="s">
+      <c r="B34" s="546" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="526"/>
-      <c r="D34" s="527"/>
-      <c r="E34" s="528" t="str">
+      <c r="C34" s="547"/>
+      <c r="D34" s="548"/>
+      <c r="E34" s="530" t="str">
         <f>Данные!C19</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F34" s="529"/>
-      <c r="G34" s="532">
+      <c r="F34" s="531"/>
+      <c r="G34" s="534">
         <f>Данные!B19</f>
         <v>202</v>
       </c>
-      <c r="H34" s="534"/>
-      <c r="I34" s="535"/>
-      <c r="J34" s="536"/>
+      <c r="H34" s="536"/>
+      <c r="I34" s="537"/>
+      <c r="J34" s="538"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="524"/>
-      <c r="B35" s="540" t="str">
+      <c r="A35" s="529"/>
+      <c r="B35" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C35" s="541"/>
-      <c r="D35" s="542"/>
-      <c r="E35" s="530"/>
-      <c r="F35" s="531"/>
-      <c r="G35" s="533"/>
-      <c r="H35" s="537"/>
-      <c r="I35" s="538"/>
-      <c r="J35" s="539"/>
+      <c r="C35" s="525"/>
+      <c r="D35" s="526"/>
+      <c r="E35" s="549"/>
+      <c r="F35" s="533"/>
+      <c r="G35" s="535"/>
+      <c r="H35" s="539"/>
+      <c r="I35" s="540"/>
+      <c r="J35" s="541"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="523">
+      <c r="A36" s="528">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="525" t="s">
+      <c r="B36" s="546" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="526"/>
-      <c r="D36" s="527"/>
-      <c r="E36" s="528" t="str">
+      <c r="C36" s="547"/>
+      <c r="D36" s="548"/>
+      <c r="E36" s="530" t="str">
         <f>Данные!C20</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F36" s="529"/>
-      <c r="G36" s="532">
+      <c r="F36" s="531"/>
+      <c r="G36" s="534">
         <f>Данные!B20</f>
         <v>70</v>
       </c>
-      <c r="H36" s="534"/>
-      <c r="I36" s="535"/>
-      <c r="J36" s="536"/>
+      <c r="H36" s="536"/>
+      <c r="I36" s="537"/>
+      <c r="J36" s="538"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="524"/>
-      <c r="B37" s="540" t="str">
+      <c r="A37" s="529"/>
+      <c r="B37" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C37" s="541"/>
-      <c r="D37" s="542"/>
-      <c r="E37" s="530"/>
-      <c r="F37" s="531"/>
-      <c r="G37" s="533"/>
-      <c r="H37" s="537"/>
-      <c r="I37" s="538"/>
-      <c r="J37" s="539"/>
+      <c r="C37" s="525"/>
+      <c r="D37" s="526"/>
+      <c r="E37" s="549"/>
+      <c r="F37" s="533"/>
+      <c r="G37" s="535"/>
+      <c r="H37" s="539"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="523">
+      <c r="A38" s="528">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="525" t="s">
+      <c r="B38" s="546" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="526"/>
-      <c r="D38" s="527"/>
-      <c r="E38" s="528" t="str">
+      <c r="C38" s="547"/>
+      <c r="D38" s="548"/>
+      <c r="E38" s="530" t="str">
         <f>Данные!C21</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F38" s="529"/>
-      <c r="G38" s="532">
+      <c r="F38" s="531"/>
+      <c r="G38" s="534">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="534"/>
-      <c r="I38" s="535"/>
-      <c r="J38" s="536"/>
+      <c r="H38" s="536"/>
+      <c r="I38" s="537"/>
+      <c r="J38" s="538"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="524"/>
-      <c r="B39" s="540" t="str">
+      <c r="A39" s="529"/>
+      <c r="B39" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C39" s="541"/>
-      <c r="D39" s="542"/>
-      <c r="E39" s="530"/>
-      <c r="F39" s="531"/>
-      <c r="G39" s="533"/>
-      <c r="H39" s="537"/>
-      <c r="I39" s="538"/>
-      <c r="J39" s="539"/>
+      <c r="C39" s="525"/>
+      <c r="D39" s="526"/>
+      <c r="E39" s="549"/>
+      <c r="F39" s="533"/>
+      <c r="G39" s="535"/>
+      <c r="H39" s="539"/>
+      <c r="I39" s="540"/>
+      <c r="J39" s="541"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="523">
+      <c r="A40" s="528">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="525" t="s">
+      <c r="B40" s="546" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="526"/>
-      <c r="D40" s="527"/>
-      <c r="E40" s="528" t="str">
+      <c r="C40" s="547"/>
+      <c r="D40" s="548"/>
+      <c r="E40" s="530" t="str">
         <f>Данные!C23</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F40" s="529"/>
-      <c r="G40" s="532">
+      <c r="F40" s="531"/>
+      <c r="G40" s="534">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="534"/>
-      <c r="I40" s="535"/>
-      <c r="J40" s="536"/>
+      <c r="H40" s="536"/>
+      <c r="I40" s="537"/>
+      <c r="J40" s="538"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="524"/>
-      <c r="B41" s="540" t="str">
+      <c r="A41" s="529"/>
+      <c r="B41" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C41" s="541"/>
-      <c r="D41" s="542"/>
-      <c r="E41" s="530"/>
-      <c r="F41" s="531"/>
-      <c r="G41" s="533"/>
-      <c r="H41" s="537"/>
-      <c r="I41" s="538"/>
-      <c r="J41" s="539"/>
+      <c r="C41" s="525"/>
+      <c r="D41" s="526"/>
+      <c r="E41" s="549"/>
+      <c r="F41" s="533"/>
+      <c r="G41" s="535"/>
+      <c r="H41" s="539"/>
+      <c r="I41" s="540"/>
+      <c r="J41" s="541"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="523">
+      <c r="A42" s="528">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="525" t="s">
+      <c r="B42" s="546" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="526"/>
-      <c r="D42" s="527"/>
-      <c r="E42" s="528" t="str">
+      <c r="C42" s="547"/>
+      <c r="D42" s="548"/>
+      <c r="E42" s="530" t="str">
         <f>Данные!C25</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F42" s="529"/>
-      <c r="G42" s="532">
+      <c r="F42" s="531"/>
+      <c r="G42" s="534">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="H42" s="534"/>
-      <c r="I42" s="535"/>
-      <c r="J42" s="536"/>
+      <c r="H42" s="536"/>
+      <c r="I42" s="537"/>
+      <c r="J42" s="538"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="524"/>
-      <c r="B43" s="540" t="str">
+      <c r="A43" s="529"/>
+      <c r="B43" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C43" s="541"/>
-      <c r="D43" s="542"/>
-      <c r="E43" s="530"/>
-      <c r="F43" s="531"/>
-      <c r="G43" s="533"/>
-      <c r="H43" s="537"/>
-      <c r="I43" s="538"/>
-      <c r="J43" s="539"/>
+      <c r="C43" s="525"/>
+      <c r="D43" s="526"/>
+      <c r="E43" s="549"/>
+      <c r="F43" s="533"/>
+      <c r="G43" s="535"/>
+      <c r="H43" s="539"/>
+      <c r="I43" s="540"/>
+      <c r="J43" s="541"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="523">
+      <c r="A44" s="528">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="525" t="s">
+      <c r="B44" s="546" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="526"/>
-      <c r="D44" s="527"/>
-      <c r="E44" s="528" t="str">
+      <c r="C44" s="547"/>
+      <c r="D44" s="548"/>
+      <c r="E44" s="530" t="str">
         <f>Данные!C26</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F44" s="529"/>
-      <c r="G44" s="532">
+      <c r="F44" s="531"/>
+      <c r="G44" s="534">
         <f>Данные!B26</f>
         <v>30</v>
       </c>
-      <c r="H44" s="534"/>
-      <c r="I44" s="535"/>
-      <c r="J44" s="536"/>
+      <c r="H44" s="536"/>
+      <c r="I44" s="537"/>
+      <c r="J44" s="538"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="524"/>
-      <c r="B45" s="540" t="str">
+      <c r="A45" s="529"/>
+      <c r="B45" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C45" s="541"/>
-      <c r="D45" s="542"/>
-      <c r="E45" s="530"/>
-      <c r="F45" s="531"/>
-      <c r="G45" s="533"/>
-      <c r="H45" s="537"/>
-      <c r="I45" s="538"/>
-      <c r="J45" s="539"/>
+      <c r="C45" s="525"/>
+      <c r="D45" s="526"/>
+      <c r="E45" s="549"/>
+      <c r="F45" s="533"/>
+      <c r="G45" s="535"/>
+      <c r="H45" s="539"/>
+      <c r="I45" s="540"/>
+      <c r="J45" s="541"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="523">
+      <c r="A46" s="528">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="525" t="s">
+      <c r="B46" s="546" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="526"/>
-      <c r="D46" s="527"/>
-      <c r="E46" s="528" t="str">
+      <c r="C46" s="547"/>
+      <c r="D46" s="548"/>
+      <c r="E46" s="530" t="str">
         <f>Данные!C24</f>
         <v>3Flyaga 0,2L</v>
       </c>
-      <c r="F46" s="529"/>
-      <c r="G46" s="532">
+      <c r="F46" s="531"/>
+      <c r="G46" s="534">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="534"/>
-      <c r="I46" s="535"/>
-      <c r="J46" s="536"/>
+      <c r="H46" s="536"/>
+      <c r="I46" s="537"/>
+      <c r="J46" s="538"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="524"/>
-      <c r="B47" s="540" t="str">
+      <c r="A47" s="529"/>
+      <c r="B47" s="524" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C47" s="541"/>
-      <c r="D47" s="542"/>
-      <c r="E47" s="530"/>
-      <c r="F47" s="531"/>
-      <c r="G47" s="533"/>
-      <c r="H47" s="537"/>
-      <c r="I47" s="538"/>
-      <c r="J47" s="539"/>
+      <c r="C47" s="525"/>
+      <c r="D47" s="526"/>
+      <c r="E47" s="549"/>
+      <c r="F47" s="533"/>
+      <c r="G47" s="535"/>
+      <c r="H47" s="539"/>
+      <c r="I47" s="540"/>
+      <c r="J47" s="541"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11704,6 +11719,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11720,70 +11799,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11841,47 +11856,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="556"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="565" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="566"/>
-      <c r="G2" s="566"/>
-      <c r="H2" s="567"/>
-      <c r="I2" s="572" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="573"/>
-      <c r="K2" s="576">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B14</f>
         <v>32</v>
       </c>
-      <c r="L2" s="577"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="568"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="559"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="569" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="570"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="574"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="579"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11892,9 +11907,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="564"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11913,22 +11928,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="508"/>
-      <c r="L5" s="509"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11939,22 +11954,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="508"/>
-      <c r="L6" s="509"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11965,27 +11980,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="510">
+      <c r="C7" s="556"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="597"/>
-      <c r="K7" s="498">
+      <c r="J7" s="559"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12475,12 +12490,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="590" t="s">
+      <c r="B23" s="550" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="591"/>
-      <c r="D23" s="591"/>
-      <c r="E23" s="592"/>
+      <c r="C23" s="551"/>
+      <c r="D23" s="551"/>
+      <c r="E23" s="552"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12502,12 +12517,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="580" t="s">
+      <c r="B24" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="581"/>
-      <c r="D24" s="581"/>
-      <c r="E24" s="582"/>
+      <c r="C24" s="589"/>
+      <c r="D24" s="589"/>
+      <c r="E24" s="590"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12550,35 +12565,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="555" t="s">
+      <c r="K27" s="563" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="555"/>
-      <c r="M27" s="555"/>
+      <c r="L27" s="563"/>
+      <c r="M27" s="563"/>
       <c r="N27" s="447"/>
       <c r="O27" s="447"/>
       <c r="P27" s="463"/>
       <c r="Q27" s="463"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="552" t="s">
+      <c r="N28" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="O28" s="552"/>
-      <c r="P28" s="553" t="s">
+      <c r="O28" s="560"/>
+      <c r="P28" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="Q28" s="554"/>
+      <c r="Q28" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12595,6 +12603,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12660,50 +12675,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="604">
+      <c r="B2" s="599">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B15</f>
         <v>32</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="568"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12714,9 +12729,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12735,22 +12750,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
-      <c r="L5" s="509"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12761,22 +12776,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
-      <c r="L6" s="509"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12787,27 +12802,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="510">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="498">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13004,12 +13019,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="628" t="s">
+      <c r="B14" s="597" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="629"/>
-      <c r="D14" s="629"/>
-      <c r="E14" s="629"/>
+      <c r="C14" s="598"/>
+      <c r="D14" s="598"/>
+      <c r="E14" s="598"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -13031,13 +13046,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="590" t="s">
+      <c r="B15" s="550" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="591"/>
-      <c r="D15" s="591"/>
-      <c r="E15" s="591"/>
-      <c r="F15" s="627"/>
+      <c r="C15" s="551"/>
+      <c r="D15" s="551"/>
+      <c r="E15" s="551"/>
+      <c r="F15" s="596"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -13056,12 +13071,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="580" t="s">
+      <c r="B16" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="581"/>
-      <c r="D16" s="581"/>
-      <c r="E16" s="582"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -13108,39 +13123,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="555" t="s">
+      <c r="L19" s="563" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="555"/>
-      <c r="N19" s="555"/>
+      <c r="M19" s="563"/>
+      <c r="N19" s="563"/>
       <c r="O19" s="447"/>
       <c r="P19" s="447"/>
       <c r="Q19" s="463"/>
       <c r="R19" s="463"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="552" t="s">
+      <c r="O20" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="552"/>
-      <c r="Q20" s="553" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="R20" s="554"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -13154,6 +13158,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13227,47 +13242,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="556"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="565" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="566"/>
-      <c r="G2" s="566"/>
-      <c r="H2" s="567"/>
-      <c r="I2" s="572" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="573"/>
-      <c r="K2" s="576">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B16</f>
         <v>64</v>
       </c>
-      <c r="L2" s="577"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="568"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="559"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="569" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="570"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="574"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="579"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13278,9 +13293,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="564"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13299,22 +13314,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="508"/>
-      <c r="L5" s="509"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13325,22 +13340,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="508"/>
-      <c r="L6" s="509"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13351,27 +13366,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="510">
+      <c r="C7" s="556"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="597"/>
-      <c r="K7" s="498">
+      <c r="J7" s="559"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13851,28 +13866,35 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="630" t="s">
+      <c r="L23" s="628" t="s">
         <v>133</v>
       </c>
-      <c r="M23" s="630"/>
-      <c r="N23" s="630"/>
+      <c r="M23" s="628"/>
+      <c r="N23" s="628"/>
       <c r="O23" s="447"/>
       <c r="P23" s="447"/>
       <c r="Q23" s="463"/>
       <c r="R23" s="463"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="552" t="s">
+      <c r="O24" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="P24" s="552"/>
-      <c r="Q24" s="553" t="s">
+      <c r="P24" s="560"/>
+      <c r="Q24" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="R24" s="554"/>
+      <c r="R24" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13887,13 +13909,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13961,47 +13976,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="556"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="565" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="566"/>
-      <c r="G2" s="566"/>
-      <c r="H2" s="567"/>
-      <c r="I2" s="572" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="573"/>
-      <c r="K2" s="576">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B17</f>
         <v>64</v>
       </c>
-      <c r="L2" s="577"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="559"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="569" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="570"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="574"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="579"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -14012,9 +14027,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="564"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -14033,22 +14048,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="508"/>
-      <c r="L5" s="509"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14059,22 +14074,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="508"/>
-      <c r="L6" s="509"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -14085,27 +14100,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
-      <c r="D7" s="510">
+      <c r="C7" s="556"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="597"/>
-      <c r="K7" s="498">
+      <c r="J7" s="559"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14389,28 +14404,34 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="630" t="s">
+      <c r="L18" s="628" t="s">
         <v>133</v>
       </c>
-      <c r="M18" s="630"/>
-      <c r="N18" s="630"/>
+      <c r="M18" s="628"/>
+      <c r="N18" s="628"/>
       <c r="O18" s="447"/>
       <c r="P18" s="447"/>
       <c r="Q18" s="463"/>
       <c r="R18" s="463"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="552" t="s">
+      <c r="O19" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="552"/>
-      <c r="Q19" s="553" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="R19" s="554"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14426,12 +14447,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14503,60 +14518,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B18</f>
         <v>152</v>
       </c>
-      <c r="L2" s="624"/>
-      <c r="M2" s="632"/>
-      <c r="N2" s="633"/>
-      <c r="O2" s="633"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
-      <c r="R2" s="634"/>
+      <c r="L2" s="619"/>
+      <c r="M2" s="630"/>
+      <c r="N2" s="631"/>
+      <c r="O2" s="631"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
+      <c r="R2" s="632"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
-      <c r="M3" s="635"/>
-      <c r="N3" s="636"/>
-      <c r="O3" s="636"/>
-      <c r="P3" s="636"/>
-      <c r="Q3" s="636"/>
-      <c r="R3" s="637"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
+      <c r="M3" s="633"/>
+      <c r="N3" s="634"/>
+      <c r="O3" s="634"/>
+      <c r="P3" s="634"/>
+      <c r="Q3" s="634"/>
+      <c r="R3" s="635"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14565,95 +14580,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="635"/>
-      <c r="N4" s="636"/>
-      <c r="O4" s="636"/>
-      <c r="P4" s="636"/>
-      <c r="Q4" s="636"/>
-      <c r="R4" s="637"/>
+      <c r="M4" s="633"/>
+      <c r="N4" s="634"/>
+      <c r="O4" s="634"/>
+      <c r="P4" s="634"/>
+      <c r="Q4" s="634"/>
+      <c r="R4" s="635"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
-      <c r="L5" s="509"/>
-      <c r="M5" s="635"/>
-      <c r="N5" s="636"/>
-      <c r="O5" s="636"/>
-      <c r="P5" s="636"/>
-      <c r="Q5" s="636"/>
-      <c r="R5" s="637"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
+      <c r="M5" s="633"/>
+      <c r="N5" s="634"/>
+      <c r="O5" s="634"/>
+      <c r="P5" s="634"/>
+      <c r="Q5" s="634"/>
+      <c r="R5" s="635"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
-      <c r="L6" s="509"/>
-      <c r="M6" s="635"/>
-      <c r="N6" s="636"/>
-      <c r="O6" s="636"/>
-      <c r="P6" s="636"/>
-      <c r="Q6" s="636"/>
-      <c r="R6" s="637"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
+      <c r="M6" s="633"/>
+      <c r="N6" s="634"/>
+      <c r="O6" s="634"/>
+      <c r="P6" s="634"/>
+      <c r="Q6" s="634"/>
+      <c r="R6" s="635"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="510">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="498">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
-      <c r="M7" s="635"/>
-      <c r="N7" s="636"/>
-      <c r="O7" s="636"/>
-      <c r="P7" s="636"/>
-      <c r="Q7" s="636"/>
-      <c r="R7" s="637"/>
+      <c r="L7" s="495"/>
+      <c r="M7" s="633"/>
+      <c r="N7" s="634"/>
+      <c r="O7" s="634"/>
+      <c r="P7" s="634"/>
+      <c r="Q7" s="634"/>
+      <c r="R7" s="635"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15067,12 +15082,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="580" t="s">
+      <c r="B21" s="588" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="581"/>
-      <c r="D21" s="581"/>
-      <c r="E21" s="582"/>
+      <c r="C21" s="589"/>
+      <c r="D21" s="589"/>
+      <c r="E21" s="590"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -15117,34 +15132,28 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="630" t="s">
+      <c r="L24" s="628" t="s">
         <v>133</v>
       </c>
-      <c r="M24" s="630"/>
-      <c r="N24" s="630"/>
+      <c r="M24" s="628"/>
+      <c r="N24" s="628"/>
       <c r="O24" s="447"/>
       <c r="P24" s="447"/>
       <c r="Q24" s="463"/>
       <c r="R24" s="463"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="552" t="s">
+      <c r="O25" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="552"/>
-      <c r="Q25" s="553" t="s">
+      <c r="P25" s="560"/>
+      <c r="Q25" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="R25" s="554"/>
+      <c r="R25" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -15161,6 +15170,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -15225,47 +15240,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B19</f>
         <v>202</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="638"/>
-      <c r="Q2" s="638"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15276,9 +15291,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15297,22 +15312,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="507" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
-      <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
-      <c r="L5" s="509"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15323,22 +15338,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
-      <c r="D6" s="501" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
-      <c r="L6" s="509"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15349,27 +15364,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="510">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="498">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="499"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15632,12 +15647,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="580" t="s">
+      <c r="B16" s="588" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="581"/>
-      <c r="D16" s="581"/>
-      <c r="E16" s="582"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15682,38 +15697,28 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="630" t="s">
+      <c r="L19" s="628" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="630"/>
-      <c r="N19" s="630"/>
+      <c r="M19" s="628"/>
+      <c r="N19" s="628"/>
       <c r="O19" s="447"/>
       <c r="P19" s="447"/>
       <c r="Q19" s="463"/>
       <c r="R19" s="463"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="552" t="s">
+      <c r="O20" s="560" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="552"/>
-      <c r="Q20" s="553" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>138</v>
       </c>
-      <c r="R20" s="554"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15726,6 +15731,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
